--- a/excelFiles/ImageInfo.xlsx
+++ b/excelFiles/ImageInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECNU\J2EE\DemoWork\data-manage-system-backend\excelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\IdeaProjects\data-manage-system\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67502868-CD7F-43FE-8E7F-FCBFC144640A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1CEA2C-5D69-4C3F-B513-8A4F625C16F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="312" yWindow="312" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,65 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatherTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatherDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thumbUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>china</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>国别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例尺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,64 +389,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
